--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -163,12 +163,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -187,19 +187,19 @@
     <t>worth</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>competition</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>funny</t>
@@ -2044,25 +2044,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.6866952789699571</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L34">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2070,25 +2070,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.6764705882352942</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2252,13 +2252,13 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.5896656534954408</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L42">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>0.95</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2278,25 +2278,25 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.5882352941176471</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2330,13 +2330,13 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.5769230769230769</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2356,13 +2356,13 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.5757575757575758</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="10:17">
